--- a/共有物分割前後差額計算表格.xlsx
+++ b/共有物分割前後差額計算表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33D5A805-D302-4E0C-902F-17B3535DCA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19379C50-D5CC-4E44-B1D3-F3D054D9D8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="坑底533" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">坑底533!$A$2:$P$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">坑底533!$A$2:$M$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>坑底</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,15 +69,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>價值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>現值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>差額</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,26 +421,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.625" customWidth="1"/>
-    <col min="13" max="13" width="6.625" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="2.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.625" customWidth="1"/>
+    <col min="12" max="12" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -457,16 +446,15 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -483,41 +471,32 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" t="s">
         <v>7</v>
-      </c>
-      <c r="P2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P34" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:M34" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
